--- a/va_facility_data_2025-02-20/La Crosse VA Clinic - Facility Data.xlsx"; filename*=UTF-8''La%20Crosse%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/La Crosse VA Clinic - Facility Data.xlsx"; filename*=UTF-8''La%20Crosse%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R353f8cc4cb264e8eba7863b41f2e1814"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R47ab604384b541e394c59ad6b159e686"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9f617e34e3e24912872d5a37a2f6590c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6657dcdb720d4029a33c4c46c05c1b55"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R73032baa401f4755abc70449f80568ae"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2e2a1fcdc2d443d9a066c2bd4a233c34"/>
   </x:sheets>
 </x:workbook>
 </file>
